--- a/excel_files/Comparison - NC_017188 & NC_017190.xlsx
+++ b/excel_files/Comparison - NC_017188 & NC_017190.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="40">
   <si>
     <t>NC_017188</t>
   </si>
@@ -92,70 +92,49 @@
     <t>0.0*</t>
   </si>
   <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
     <t>7.0</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
   </si>
   <si>
     <t>6.0</t>
   </si>
   <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>6.5</t>
   </si>
   <si>
     <t>19.0</t>
   </si>
   <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>25.5</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>24.5</t>
+    <t>23.5</t>
   </si>
 </sst>
 </file>
@@ -655,38 +634,38 @@
         <v>26</v>
       </c>
       <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" t="s">
         <v>29</v>
       </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" t="s">
-        <v>31</v>
-      </c>
       <c r="T4" t="s">
         <v>22</v>
       </c>
@@ -694,7 +673,7 @@
         <v>22</v>
       </c>
       <c r="V4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -714,22 +693,22 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
@@ -747,10 +726,10 @@
         <v>22</v>
       </c>
       <c r="R5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="S5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="T5" t="s">
         <v>22</v>
@@ -759,7 +738,7 @@
         <v>22</v>
       </c>
       <c r="V5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -779,7 +758,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>24</v>
@@ -788,16 +767,16 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
         <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
@@ -815,10 +794,10 @@
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="T6" t="s">
         <v>22</v>
@@ -827,7 +806,7 @@
         <v>22</v>
       </c>
       <c r="V6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -844,7 +823,7 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>24</v>
@@ -853,16 +832,16 @@
         <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
         <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
@@ -880,10 +859,10 @@
         <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="T7" t="s">
         <v>22</v>
@@ -892,7 +871,7 @@
         <v>22</v>
       </c>
       <c r="V7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -900,34 +879,34 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -948,7 +927,7 @@
         <v>25</v>
       </c>
       <c r="S8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="T8" t="s">
         <v>22</v>
@@ -965,16 +944,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
@@ -983,16 +962,16 @@
         <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
@@ -1010,10 +989,10 @@
         <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="T9" t="s">
         <v>22</v>
@@ -1022,7 +1001,7 @@
         <v>22</v>
       </c>
       <c r="V9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1030,34 +1009,34 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M10" t="s">
         <v>22</v>
@@ -1075,10 +1054,10 @@
         <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="S10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="T10" t="s">
         <v>22</v>
@@ -1087,7 +1066,7 @@
         <v>22</v>
       </c>
       <c r="V10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1095,31 +1074,31 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>24</v>
@@ -1140,10 +1119,10 @@
         <v>22</v>
       </c>
       <c r="R11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s">
         <v>22</v>
@@ -1152,7 +1131,7 @@
         <v>22</v>
       </c>
       <c r="V11" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1429,25 +1408,25 @@
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I16" t="s">
         <v>25</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M16" t="s">
         <v>22</v>
@@ -1468,7 +1447,7 @@
         <v>24</v>
       </c>
       <c r="S16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="T16" t="s">
         <v>22</v>
@@ -1477,7 +1456,7 @@
         <v>22</v>
       </c>
       <c r="V16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:22">
@@ -1485,52 +1464,52 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" t="s">
         <v>39</v>
-      </c>
-      <c r="H17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>22</v>
-      </c>
-      <c r="R17" t="s">
-        <v>46</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>24</v>
@@ -1542,7 +1521,7 @@
         <v>22</v>
       </c>
       <c r="V17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:22">
@@ -1680,55 +1659,55 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
         <v>32</v>
       </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>32</v>
       </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" t="s">
-        <v>25</v>
-      </c>
       <c r="I20" t="s">
         <v>25</v>
       </c>
       <c r="J20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20" t="s">
         <v>32</v>
       </c>
-      <c r="K20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>22</v>
-      </c>
-      <c r="R20" t="s">
-        <v>29</v>
-      </c>
       <c r="S20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T20" t="s">
         <v>22</v>
